--- a/Survey/AIDOaRt_Partners.xlsx
+++ b/Survey/AIDOaRt_Partners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\AIDOaRt-Hackathon-TOSEM\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0313B3-F997-43B2-A72F-7110C90CD392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FE34E3-B1F8-40BE-A89B-FE73F83C3DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41388" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,14 +667,18 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
